--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -44,21 +44,42 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>B.B.C. ORAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>FUSIDERM 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
     <t>30.0000</t>
   </si>
   <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>SELGON 20MG 20 TABS.</t>
   </si>
   <si>
@@ -71,7 +92,7 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 9:16 AM</t>
+    <t>Thursday, 10 July, 2025 9:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -745,7 +766,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -755,49 +776,115 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
         <v>18</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>21</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>22</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>20</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>21</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>22</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>24</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>17</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>150</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>27</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>28</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>29</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -816,10 +903,20 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -92,7 +92,7 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 9:45 AM</t>
+    <t>Thursday, 10 July, 2025 10:12 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -92,7 +92,16 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 10:12 AM</t>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 10 July, 2025 10:18 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -853,38 +862,71 @@
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>150</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>27</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>28</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
         <v>29</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c t="s" r="Q11" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>173</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>30</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>31</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>32</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -913,10 +955,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -59,6 +59,30 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>FUSIDERM 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -89,9 +113,6 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -101,7 +122,7 @@
     <t>23.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 10:18 AM</t>
+    <t>Thursday, 10 July, 2025 10:24 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -775,7 +796,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -785,14 +806,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -801,14 +822,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -818,14 +839,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -834,14 +855,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -851,14 +872,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -874,7 +895,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -884,49 +905,115 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>173</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>30</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>31</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>32</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>25</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>35</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>220.5</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>37</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>38</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>39</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -960,10 +1047,20 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>49.00</t>
   </si>
   <si>
@@ -74,6 +86,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -93,9 +114,6 @@
   </si>
   <si>
     <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>56.00</t>
@@ -780,7 +798,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -789,14 +807,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -813,7 +831,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -822,14 +840,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -846,7 +864,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -855,7 +873,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -872,14 +890,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -888,14 +906,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -912,7 +930,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -928,7 +946,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -938,14 +956,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -978,42 +996,108 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>220.5</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>37</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>38</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>32</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>39</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c t="s" r="Q14" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>40</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>16</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>41</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>538.5</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>43</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>44</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>45</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1057,10 +1141,20 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -140,7 +140,7 @@
     <t>23.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 10:24 AM</t>
+    <t>Thursday, 10 July, 2025 10:25 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>124.00</t>
   </si>
   <si>
     <t>124.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
@@ -83,9 +95,6 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -131,6 +140,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -140,7 +161,7 @@
     <t>23.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 10:25 AM</t>
+    <t>Thursday, 10 July, 2025 10:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -814,7 +835,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -824,11 +845,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -840,14 +861,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -864,7 +885,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -873,14 +894,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -897,7 +918,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -913,7 +934,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -930,7 +951,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -963,7 +984,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -979,7 +1000,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1012,7 +1033,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1022,14 +1043,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1045,7 +1066,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1055,49 +1076,115 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>43</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>44</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>45</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>538.5</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>43</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>44</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
-        <v>45</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>48</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>682.08000000000004</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>50</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>51</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>52</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1151,10 +1238,20 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>23.0000</t>
+  </si>
+  <si>
+    <t>VENTAL COMPOSITUM 200 DOSES SPRAY</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
   </si>
   <si>
     <t>Thursday, 10 July, 2025 10:46 AM</t>
@@ -1153,38 +1162,71 @@
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>682.08000000000004</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>50</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>18</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>51</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>52</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>762.08000000000004</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>53</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>54</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>55</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1248,10 +1290,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -170,7 +170,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 10:46 AM</t>
+    <t>Thursday, 10 July, 2025 10:54 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>MEDIPHA IVY SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>SELGON 20MG 20 TABS.</t>
   </si>
   <si>
@@ -152,6 +164,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -170,7 +191,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 10:54 AM</t>
+    <t>Thursday, 10 July, 2025 11:14 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1075,24 +1096,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1101,14 +1122,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1118,7 +1139,7 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1141,7 +1162,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1151,14 +1172,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1167,14 +1188,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1184,49 +1205,115 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>54</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>762.08000000000004</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>53</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
-        <v>54</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>55</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>57</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>18</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>58</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>861.58000000000004</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>60</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>61</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>62</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1295,10 +1382,20 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -95,6 +95,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -191,7 +200,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 11:14 AM</t>
+    <t>Thursday, 10 July, 2025 11:15 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -964,7 +973,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -997,7 +1006,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1014,7 +1023,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1047,7 +1056,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1063,7 +1072,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1102,15 +1111,15 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1122,31 +1131,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1172,11 +1181,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1188,14 +1197,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1228,7 +1237,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1245,7 +1254,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1261,7 +1270,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1282,38 +1291,71 @@
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>861.58000000000004</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>60</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>18</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>61</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>62</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>931.58000000000004</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>63</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>64</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>65</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1392,10 +1434,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>SERETIDE INHAELER 125/25 MC</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -200,7 +209,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 11:15 AM</t>
+    <t>Thursday, 10 July, 2025 11:19 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1204,24 +1213,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1230,14 +1239,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1270,7 +1279,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1287,7 +1296,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1303,7 +1312,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1324,38 +1333,71 @@
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>931.58000000000004</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>63</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>18</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>64</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>65</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>1159.5799999999999</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>66</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>67</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>68</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1439,10 +1481,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -209,7 +209,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 11:19 AM</t>
+    <t>Thursday, 10 July, 2025 11:51 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -209,7 +209,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 11:51 AM</t>
+    <t>Thursday, 10 July, 2025 11:54 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -209,7 +221,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 11:54 AM</t>
+    <t>Thursday, 10 July, 2025 11:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -916,7 +928,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -926,11 +938,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -942,14 +954,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -966,7 +978,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -982,7 +994,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -992,14 +1004,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1008,14 +1020,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1025,11 +1037,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1041,14 +1053,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1058,14 +1070,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1074,7 +1086,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1091,14 +1103,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1107,14 +1119,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1124,11 +1136,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1140,20 +1152,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1180,24 +1192,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1206,31 +1218,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1239,20 +1251,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1263,7 +1275,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1279,7 +1291,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1289,11 +1301,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1305,14 +1317,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1322,14 +1334,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1338,14 +1350,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1355,49 +1367,82 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>1159.5799999999999</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>66</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>67</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>22</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>68</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>1193.5799999999999</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>70</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>71</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>72</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1486,10 +1531,15 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -125,6 +134,15 @@
     <t>194.0000</t>
   </si>
   <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -212,6 +230,12 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>VENTAL COMPOSITUM 200 DOSES SPRAY</t>
   </si>
   <si>
@@ -221,7 +245,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 11:56 AM</t>
+    <t>Thursday, 10 July, 2025 12:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1027,7 +1051,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1044,7 +1068,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1060,7 +1084,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1093,7 +1117,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1110,7 +1134,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1126,7 +1150,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1143,7 +1167,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1159,7 +1183,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1176,7 +1200,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1192,21 +1216,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1218,14 +1242,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1235,14 +1259,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1251,7 +1275,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1264,7 +1288,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1301,11 +1325,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1317,31 +1341,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1350,14 +1374,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1374,7 +1398,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1390,7 +1414,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1407,42 +1431,141 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>1193.5799999999999</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>70</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>16</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>71</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>72</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>64</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>74</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>75</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>22</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>76</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1292.5799999999999</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>78</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>79</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>80</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1536,10 +1659,25 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -245,7 +245,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 12:07 PM</t>
+    <t>Thursday, 10 July, 2025 12:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -143,6 +143,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -245,7 +254,13 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 12:37 PM</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>Thursday, 10 July, 2025 12:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1183,7 +1198,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1233,7 +1248,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1249,7 +1264,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1288,15 +1303,15 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1308,31 +1323,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1348,24 +1363,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1381,24 +1396,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1407,14 +1422,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1447,7 +1462,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1464,7 +1479,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1480,7 +1495,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1494,10 +1509,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1506,14 +1521,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1523,49 +1538,115 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1292.5799999999999</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>78</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>22</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>79</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>80</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>81</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>22</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>57</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>82</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1362.5799999999999</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>83</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>84</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>85</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1674,10 +1755,20 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -260,7 +260,7 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 12:50 PM</t>
+    <t>Thursday, 10 July, 2025 12:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -254,13 +266,34 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 12:53 PM</t>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 10 July, 2025 1:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -984,7 +1017,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1000,7 +1033,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1010,11 +1043,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1026,14 +1059,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1050,7 +1083,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1066,7 +1099,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1076,11 +1109,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1092,14 +1125,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1109,14 +1142,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1125,14 +1158,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1142,11 +1175,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1158,14 +1191,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1175,14 +1208,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1191,14 +1224,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1208,11 +1241,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1224,14 +1257,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1241,11 +1274,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1257,7 +1290,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1274,14 +1307,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1290,14 +1323,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1307,11 +1340,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1323,20 +1356,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1363,24 +1396,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1389,31 +1422,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1422,20 +1455,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1446,7 +1479,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1462,7 +1495,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1472,11 +1505,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1488,14 +1521,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1505,14 +1538,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1521,14 +1554,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1538,14 +1571,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1554,14 +1587,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1571,14 +1604,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1587,66 +1620,165 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1362.5799999999999</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>83</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>84</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>85</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>26</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>61</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>86</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>88</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>26</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>61</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>89</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>90</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>91</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>61</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>92</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1412.06</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>94</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>95</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>96</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1765,10 +1897,25 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>SELGON 20MG 20 TABS.</t>
   </si>
   <si>
@@ -293,7 +302,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 1:47 PM</t>
+    <t>Thursday, 10 July, 2025 2:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1429,7 +1438,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1439,14 +1448,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1462,24 +1471,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1495,24 +1504,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1521,14 +1530,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1561,7 +1570,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1578,7 +1587,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1594,7 +1603,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1608,10 +1617,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1620,14 +1629,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1637,14 +1646,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1666,7 +1675,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1707,7 +1716,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1719,14 +1728,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1740,45 +1749,78 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>93</v>
       </c>
-      <c t="s" r="Q31" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1412.06</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
         <v>94</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>61</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>95</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>96</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1507.06</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>97</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>98</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>99</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1912,10 +1954,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -302,7 +302,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 2:05 PM</t>
+    <t>Thursday, 10 July, 2025 2:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -302,7 +302,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 2:28 PM</t>
+    <t>Thursday, 10 July, 2025 2:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -302,7 +302,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 2:35 PM</t>
+    <t>Thursday, 10 July, 2025 2:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -302,7 +302,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 2:39 PM</t>
+    <t>Thursday, 10 July, 2025 2:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -302,7 +302,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 2:40 PM</t>
+    <t>Thursday, 10 July, 2025 2:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>228.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN-M 25*10 TABLETS</t>
+  </si>
+  <si>
+    <t>362.50</t>
+  </si>
+  <si>
+    <t>14.5000</t>
   </si>
   <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
@@ -1537,7 +1546,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1547,11 +1556,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1563,14 +1572,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1603,7 +1612,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1620,7 +1629,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1636,7 +1645,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1650,10 +1659,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1662,14 +1671,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1679,14 +1688,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1708,7 +1717,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1749,7 +1758,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1761,14 +1770,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1782,45 +1791,78 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>96</v>
       </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1507.06</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
         <v>97</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>61</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>98</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>99</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1521.56</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>100</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>101</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>102</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1959,10 +2001,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -311,7 +311,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 2:41 PM</t>
+    <t>Thursday, 10 July, 2025 3:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>SANSOVIT PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -266,9 +275,6 @@
     <t>23.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -311,7 +317,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 3:30 PM</t>
+    <t>Thursday, 10 July, 2025 3:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1447,7 +1453,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1464,7 +1470,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1480,7 +1486,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1490,14 +1496,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1513,24 +1519,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1552,7 +1558,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1563,7 +1569,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1579,7 +1585,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1589,11 +1595,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1605,14 +1611,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1645,7 +1651,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1662,7 +1668,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1678,7 +1684,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1692,10 +1698,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1711,7 +1717,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1725,10 +1731,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1737,7 +1743,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1750,15 +1756,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1770,7 +1776,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1787,11 +1793,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1810,7 +1816,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1820,49 +1826,82 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>98</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
         <v>99</v>
       </c>
-      <c t="s" r="Q33" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1521.56</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>61</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>100</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>101</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1544.56</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
         <v>102</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>103</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>104</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2006,10 +2045,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -203,6 +203,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -290,12 +296,21 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8562:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>2.0000</t>
   </si>
   <si>
@@ -317,7 +332,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 3:32 PM</t>
+    <t>Thursday, 10 July, 2025 4:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1453,7 +1468,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1463,14 +1478,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1479,14 +1494,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1496,14 +1511,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1512,14 +1527,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1529,14 +1544,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1545,31 +1560,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1578,7 +1593,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1591,18 +1606,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1611,14 +1626,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1628,11 +1643,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1644,14 +1659,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1661,11 +1676,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1677,14 +1692,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1694,14 +1709,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1717,7 +1732,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1731,10 +1746,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1750,7 +1765,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1764,10 +1779,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1776,7 +1791,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1789,15 +1804,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1809,20 +1824,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1830,10 +1845,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1842,14 +1857,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1859,49 +1874,115 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>101</v>
       </c>
-      <c t="s" r="Q34" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1544.56</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>26</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>61</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>102</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>103</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
         <v>104</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>61</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>105</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1638.56</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>107</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>108</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>109</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2050,10 +2131,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -119,6 +119,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
@@ -311,7 +323,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -332,7 +347,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 4:44 PM</t>
+    <t>Thursday, 10 July, 2025 4:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1171,7 +1186,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1181,11 +1196,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1197,14 +1212,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1214,14 +1229,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1230,14 +1245,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1247,11 +1262,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1263,7 +1278,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1280,14 +1295,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1296,14 +1311,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1313,11 +1328,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1329,14 +1344,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1346,11 +1361,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1362,7 +1377,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1379,14 +1394,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1395,14 +1410,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1412,11 +1427,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1428,7 +1443,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1441,7 +1456,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1468,21 +1483,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1494,14 +1509,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1511,14 +1526,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1527,14 +1542,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1544,14 +1559,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1560,14 +1575,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1577,14 +1592,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1593,31 +1608,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1626,7 +1641,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1639,18 +1654,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1659,14 +1674,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1699,7 +1714,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1709,11 +1724,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1725,14 +1740,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1742,14 +1757,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1758,14 +1773,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1775,14 +1790,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1791,14 +1806,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1808,14 +1823,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1824,14 +1839,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1848,7 +1863,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1864,24 +1879,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1890,7 +1905,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1903,18 +1918,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1923,66 +1938,99 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1638.56</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>107</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>108</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
         <v>109</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>65</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>110</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1654.4400000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>112</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>113</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>114</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2141,10 +2189,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -347,7 +347,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 4:52 PM</t>
+    <t>Thursday, 10 July, 2025 5:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>BRIMOSALM EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -230,6 +239,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>SANSOVIT PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -293,6 +311,18 @@
     <t>23.00</t>
   </si>
   <si>
+    <t>TORSERETIC 10 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -335,6 +365,9 @@
     <t>15.00</t>
   </si>
   <si>
+    <t>لزقه النمر بسعر القطعه</t>
+  </si>
+  <si>
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
@@ -347,7 +380,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 5:05 PM</t>
+    <t>Thursday, 10 July, 2025 5:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1153,7 +1186,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1163,14 +1196,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1179,14 +1212,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1196,11 +1229,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1212,14 +1245,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1252,7 +1285,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1269,7 +1302,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1285,7 +1318,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1335,7 +1368,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1351,7 +1384,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1384,7 +1417,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1434,7 +1467,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1450,7 +1483,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1489,15 +1522,15 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1509,28 +1542,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1542,14 +1575,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1559,14 +1592,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1582,7 +1615,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1599,7 +1632,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1615,7 +1648,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1625,14 +1658,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1648,13 +1681,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1681,7 +1714,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1691,7 +1724,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1714,24 +1747,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1740,14 +1773,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1757,11 +1790,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1773,14 +1806,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1794,10 +1827,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1806,14 +1839,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1823,11 +1856,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1839,14 +1872,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1856,11 +1889,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1872,14 +1905,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1889,14 +1922,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1905,31 +1938,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1951,7 +1984,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1959,7 +1992,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1971,66 +2004,198 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>113</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>26</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>68</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>111</v>
       </c>
-      <c t="s" r="Q37" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1654.4400000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>112</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>113</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>114</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>116</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>26</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>68</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>117</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>118</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>26</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>68</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>117</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>119</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>120</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>68</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>121</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1861.4400000000001</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>123</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>124</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>125</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2194,10 +2359,30 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -380,7 +380,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 5:20 PM</t>
+    <t>Thursday, 10 July, 2025 5:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -77,13 +77,16 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>2:2</t>
+    <t>2:1</t>
   </si>
   <si>
     <t>78.00</t>
   </si>
   <si>
-    <t>12.4800</t>
+    <t>24.9600</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
@@ -119,9 +122,6 @@
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -152,12 +152,27 @@
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>70.00</t>
   </si>
   <si>
     <t>70.0000</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>8:9</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
     <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -203,6 +218,9 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
     <t>HYACARENOL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -287,9 +305,6 @@
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>126.00</t>
   </si>
   <si>
@@ -314,9 +329,6 @@
     <t>TORSERETIC 10 MG 30 TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>93.00</t>
   </si>
   <si>
@@ -353,10 +365,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -380,7 +392,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 5:21 PM</t>
+    <t>Thursday, 10 July, 2025 6:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1104,7 +1116,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1113,14 +1125,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1130,11 +1142,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1146,7 +1158,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1163,11 +1175,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1179,14 +1191,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1196,11 +1208,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1212,14 +1224,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1318,7 +1330,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1328,11 +1340,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1344,14 +1356,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1361,14 +1373,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1377,14 +1389,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1394,14 +1406,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1410,14 +1422,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1427,11 +1439,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1443,14 +1455,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1460,11 +1472,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1476,7 +1488,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1493,14 +1505,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1509,14 +1521,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1526,11 +1538,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1542,28 +1554,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1575,14 +1587,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1592,7 +1604,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1615,24 +1627,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1641,14 +1653,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1658,7 +1670,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -1681,7 +1693,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1698,7 +1710,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1714,7 +1726,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1724,14 +1736,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1747,13 +1759,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1780,7 +1792,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1790,7 +1802,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1813,24 +1825,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1839,14 +1851,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1856,11 +1868,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1872,14 +1884,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1889,14 +1901,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1912,7 +1924,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1922,14 +1934,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1938,14 +1950,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1955,14 +1967,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1971,14 +1983,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1988,11 +2000,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2004,14 +2016,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2021,14 +2033,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2037,20 +2049,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2058,10 +2070,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2070,31 +2082,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2103,31 +2115,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2136,20 +2148,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2157,45 +2169,111 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>122</v>
       </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1861.4400000000001</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>27</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>74</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>121</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>123</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
         <v>124</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>74</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>125</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>2022.96</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>127</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>128</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>129</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2379,10 +2457,20 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>AVOSOYA 20 CAPSULES</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>B.B.C. ORAL SPRAY 25 ML</t>
   </si>
   <si>
@@ -110,6 +119,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>BRIMOSALM EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -119,6 +140,15 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -140,6 +170,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DIACEREIN 50MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
@@ -152,9 +191,6 @@
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -293,6 +329,15 @@
     <t>228.0000</t>
   </si>
   <si>
+    <t>SORAL 30 MG 30CAPS</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>42.5700</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN-M 25*10 TABLETS</t>
   </si>
   <si>
@@ -371,6 +416,15 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -392,7 +446,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 6:05 PM</t>
+    <t>Thursday, 10 July, 2025 6:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1165,7 +1219,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1182,7 +1236,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1198,7 +1252,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1231,7 +1285,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1248,7 +1302,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1257,14 +1311,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1281,7 +1335,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1330,7 +1384,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1340,14 +1394,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1356,14 +1410,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1373,14 +1427,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1389,14 +1443,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1406,14 +1460,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1422,14 +1476,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1439,11 +1493,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1455,14 +1509,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1472,14 +1526,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1488,14 +1542,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1512,7 +1566,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1528,7 +1582,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1561,7 +1615,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1571,14 +1625,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1587,14 +1641,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1604,14 +1658,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1620,31 +1674,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1653,7 +1707,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1670,11 +1724,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1686,14 +1740,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1703,14 +1757,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1726,7 +1780,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1759,21 +1813,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1785,14 +1839,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1802,14 +1856,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1825,13 +1879,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1842,7 +1896,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1858,7 +1912,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1875,7 +1929,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1891,7 +1945,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1908,7 +1962,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1924,7 +1978,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1934,7 +1988,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -1957,13 +2011,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1971,7 +2025,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1983,7 +2037,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1996,18 +2050,18 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2016,14 +2070,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2033,11 +2087,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2049,14 +2103,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2066,14 +2120,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2082,14 +2136,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2099,14 +2153,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2115,31 +2169,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2155,13 +2209,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2169,7 +2223,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2181,31 +2235,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2214,66 +2268,264 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>2022.96</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>127</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>128</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
         <v>129</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>13</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>130</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>132</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>27</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>86</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>130</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>135</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>27</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>86</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>136</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>138</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>27</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>86</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>139</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>140</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>27</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>86</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>139</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>141</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>142</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>86</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>143</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2437.5700000000002</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>145</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>146</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>147</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2467,10 +2719,40 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -446,7 +446,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 6:07 PM</t>
+    <t>Thursday, 10 July, 2025 6:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -266,6 +266,15 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>MEDIPHA IVY SYRUP</t>
   </si>
   <si>
@@ -446,7 +455,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 6:09 PM</t>
+    <t>Thursday, 10 July, 2025 6:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1813,24 +1822,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1839,28 +1848,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1872,14 +1881,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1889,14 +1898,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1912,7 +1921,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1929,7 +1938,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1945,7 +1954,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1978,7 +1987,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1988,14 +1997,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2011,24 +2020,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2044,13 +2053,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2061,7 +2070,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2077,13 +2086,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2110,7 +2119,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2143,7 +2152,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2176,7 +2185,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2190,10 +2199,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2202,14 +2211,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2219,11 +2228,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2242,7 +2251,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2256,10 +2265,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2268,14 +2277,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2285,14 +2294,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2308,7 +2317,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2318,14 +2327,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2334,31 +2343,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>134</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2380,18 +2389,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2413,7 +2422,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2421,10 +2430,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2433,7 +2442,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2446,15 +2455,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2466,66 +2475,99 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>144</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2437.5700000000002</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
         <v>145</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>89</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>146</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>147</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2456.5700000000002</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>148</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>149</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>150</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2749,10 +2791,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -77,102 +77,117 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>37.4400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>AVOSOYA 20 CAPSULES</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>B.B.C. ORAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>BRIMOSALM EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>24.9600</t>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DIACEREIN 50MG 30 CAP.</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>AVOSOYA 20 CAPSULES</t>
-  </si>
-  <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>B.B.C. ORAL SPRAY 25 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>BETOLVEX 1MG/ML 2 AMP</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>BRIMOSALM EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>CALCITRON 30 CAPS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DIACEREIN 50MG 30 CAP.</t>
-  </si>
-  <si>
     <t>156.00</t>
   </si>
   <si>
@@ -419,10 +434,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -455,7 +467,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 6:13 PM</t>
+    <t>Thursday, 10 July, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1162,7 +1174,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1172,14 +1184,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1188,14 +1200,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1205,11 +1217,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1221,7 +1233,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1238,11 +1250,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1254,7 +1266,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1271,11 +1283,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1287,14 +1299,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1304,14 +1316,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>38</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1320,14 +1332,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1337,11 +1349,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1353,7 +1365,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1370,11 +1382,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1386,14 +1398,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1459,7 +1471,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1469,11 +1481,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1485,14 +1497,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1502,11 +1514,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1518,14 +1530,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1535,14 +1547,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1551,14 +1563,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1568,14 +1580,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1584,14 +1596,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1601,14 +1613,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1617,14 +1629,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1634,14 +1646,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1650,14 +1662,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1667,11 +1679,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1683,14 +1695,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1700,11 +1712,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1716,7 +1728,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1733,14 +1745,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1749,7 +1761,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1766,11 +1778,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1782,14 +1794,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1799,11 +1811,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1815,14 +1827,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1832,14 +1844,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1848,31 +1860,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1881,28 +1893,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1914,14 +1926,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1931,14 +1943,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1947,14 +1959,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1964,14 +1976,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1980,14 +1992,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1997,11 +2009,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2013,14 +2025,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2030,14 +2042,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2046,31 +2058,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2079,31 +2091,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2112,28 +2124,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2145,14 +2157,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2162,11 +2174,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2178,14 +2190,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2195,11 +2207,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2211,14 +2223,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2228,14 +2240,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2244,14 +2256,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2261,11 +2273,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2277,14 +2289,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2294,14 +2306,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2310,14 +2322,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2327,14 +2339,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2343,14 +2355,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2360,14 +2372,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2376,31 +2388,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2409,31 +2421,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2442,31 +2454,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2475,28 +2487,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2508,20 +2520,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2529,45 +2541,78 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2456.5700000000002</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>148</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
         <v>149</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>94</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>150</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2490.0500000000002</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>152</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>153</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>154</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2796,10 +2841,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -146,6 +158,12 @@
     <t>43.5600</t>
   </si>
   <si>
+    <t>CEFORAN 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -176,12 +194,6 @@
     <t>2:3</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DIACEREIN 50MG 30 CAP.</t>
   </si>
   <si>
@@ -269,6 +281,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -308,6 +329,12 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>OMIT-C MOUTH SPRAY 60 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -419,6 +446,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -443,7 +479,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -455,6 +494,15 @@
     <t>لزقه النمر بسعر القطعه</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
@@ -467,7 +515,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 6:46 PM</t>
+    <t>Thursday, 10 July, 2025 6:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1141,7 +1189,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1151,14 +1199,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1174,7 +1222,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1184,14 +1232,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1207,7 +1255,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1217,14 +1265,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1240,7 +1288,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1250,14 +1298,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1266,7 +1314,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1283,11 +1331,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1299,14 +1347,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1316,14 +1364,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1339,7 +1387,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1356,7 +1404,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1365,14 +1413,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1382,14 +1430,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1398,14 +1446,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1422,7 +1470,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1448,14 +1496,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1464,14 +1512,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1481,14 +1529,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1497,14 +1545,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1514,14 +1562,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1530,14 +1578,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1547,14 +1595,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1563,14 +1611,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1580,11 +1628,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1596,14 +1644,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1613,14 +1661,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1629,14 +1677,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1646,14 +1694,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1662,14 +1710,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1679,14 +1727,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1695,14 +1743,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1712,14 +1760,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1728,14 +1776,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1745,14 +1793,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1761,7 +1809,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1778,11 +1826,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1794,14 +1842,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1811,11 +1859,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1834,7 +1882,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1851,7 +1899,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1867,7 +1915,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1884,7 +1932,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1900,24 +1948,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1926,14 +1974,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1943,14 +1991,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1959,14 +2007,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1976,14 +2024,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1992,31 +2040,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2025,14 +2073,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2042,14 +2090,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2058,14 +2106,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2075,14 +2123,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2091,28 +2139,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2124,31 +2172,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2157,14 +2205,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2174,14 +2222,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2190,14 +2238,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2207,14 +2255,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2223,31 +2271,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2256,28 +2304,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2289,14 +2337,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2306,11 +2354,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2322,14 +2370,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2339,14 +2387,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2355,14 +2403,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2372,11 +2420,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2388,14 +2436,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2405,14 +2453,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2421,20 +2469,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2442,10 +2490,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2454,31 +2502,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2487,31 +2535,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2520,28 +2568,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2566,7 +2614,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2577,42 +2625,240 @@
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2490.0500000000002</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>152</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>30</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>101</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>150</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>153</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>154</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>30</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>101</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>155</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>158</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>30</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>101</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>159</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>160</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>30</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>101</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>159</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>161</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>162</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>101</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>53</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>164</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>165</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>101</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>166</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2647.1500000000001</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>168</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>169</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>170</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2846,10 +3092,40 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -515,7 +515,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 6:47 PM</t>
+    <t>Thursday, 10 July, 2025 6:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -158,12 +158,33 @@
     <t>43.5600</t>
   </si>
   <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CEFORAN 1 GM VIAL</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
+    <t>CEFRONE 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -302,6 +323,15 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
@@ -467,6 +497,18 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -482,9 +524,6 @@
     <t>9.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -515,7 +554,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 6:56 PM</t>
+    <t>Thursday, 10 July, 2025 7:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1486,7 +1525,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1496,11 +1535,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1512,14 +1551,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1529,14 +1568,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1545,14 +1584,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1562,14 +1601,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1578,14 +1617,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1595,11 +1634,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1611,14 +1650,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1628,11 +1667,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1644,14 +1683,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1661,11 +1700,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1684,7 +1723,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1694,14 +1733,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1710,14 +1749,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1734,7 +1773,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1750,7 +1789,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1783,7 +1822,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1793,14 +1832,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1809,14 +1848,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1826,14 +1865,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1842,14 +1881,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1859,11 +1898,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1875,14 +1914,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1892,14 +1931,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1908,14 +1947,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1925,11 +1964,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1941,7 +1980,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1958,11 +1997,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -1974,14 +2013,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1991,14 +2030,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2007,14 +2046,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2024,14 +2063,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2040,7 +2079,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2053,7 +2092,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2090,11 +2129,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2106,14 +2145,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2123,14 +2162,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2139,31 +2178,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2172,14 +2211,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2189,11 +2228,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2205,14 +2244,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2222,11 +2261,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2238,14 +2277,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2255,11 +2294,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2271,28 +2310,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2304,31 +2343,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2337,14 +2376,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2354,11 +2393,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2370,31 +2409,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2403,28 +2442,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2436,14 +2475,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2453,14 +2492,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2469,14 +2508,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2486,14 +2525,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2502,14 +2541,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2519,11 +2558,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2535,14 +2574,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2552,11 +2591,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2568,14 +2607,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2585,14 +2624,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2601,14 +2640,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2618,14 +2657,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2647,18 +2686,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>153</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2667,31 +2706,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2707,24 +2746,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2733,28 +2772,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2766,31 +2805,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2799,66 +2838,198 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2647.1500000000001</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>168</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>169</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
-        <v>170</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>171</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>30</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>111</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>172</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>173</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>30</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>111</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>172</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>174</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>175</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>111</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>60</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>177</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>178</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>111</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>179</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2796.1500000000001</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>181</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>182</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>183</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3122,10 +3293,30 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -89,6 +89,9 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -167,12 +170,6 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>CEFORAN 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>CEFRONE 1 GM VIAL</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -200,7 +194,7 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>3:1</t>
+    <t>3:2</t>
   </si>
   <si>
     <t>85.00</t>
@@ -554,7 +548,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 7:13 PM</t>
+    <t>Thursday, 10 July, 2025 7:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1294,7 +1288,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1304,14 +1298,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1320,14 +1314,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1337,11 +1331,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1353,7 +1347,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1370,11 +1364,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1386,7 +1380,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1403,11 +1397,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1419,14 +1413,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1436,14 +1430,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1452,14 +1446,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1469,11 +1463,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1485,7 +1479,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1502,11 +1496,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1518,7 +1512,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1535,11 +1529,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1551,14 +1545,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1568,11 +1562,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1584,14 +1578,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1601,14 +1595,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1617,14 +1611,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1634,11 +1628,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1650,14 +1644,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1667,11 +1661,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1700,11 +1694,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1716,14 +1710,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1733,11 +1727,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1749,14 +1743,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1766,14 +1760,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1782,14 +1776,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1799,14 +1793,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1815,14 +1809,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1832,14 +1826,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1848,14 +1842,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1865,14 +1859,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1881,14 +1875,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1898,11 +1892,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1914,14 +1908,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1931,11 +1925,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1947,7 +1941,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1964,14 +1958,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1980,14 +1974,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1997,14 +1991,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2013,14 +2007,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2030,14 +2024,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2046,14 +2040,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2063,11 +2057,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2079,14 +2073,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2096,11 +2090,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2112,14 +2106,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2129,14 +2123,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2145,31 +2139,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2178,24 +2172,24 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2218,7 +2212,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2228,11 +2222,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2251,7 +2245,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2265,10 +2259,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2277,14 +2271,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2294,14 +2288,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2310,14 +2304,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2327,11 +2321,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2343,14 +2337,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2360,14 +2354,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2376,31 +2370,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2409,31 +2403,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2442,28 +2436,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2475,14 +2469,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2492,11 +2486,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2508,14 +2502,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2525,11 +2519,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2541,14 +2535,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2558,14 +2552,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2581,7 +2575,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2595,7 +2589,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2607,14 +2601,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2624,14 +2618,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2647,7 +2641,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2661,10 +2655,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2673,14 +2667,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2690,14 +2684,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2706,14 +2700,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2723,14 +2717,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2739,31 +2733,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2772,31 +2766,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>165</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2812,24 +2806,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>167</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2838,31 +2832,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2878,21 +2872,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -2904,28 +2898,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -2937,99 +2931,66 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="A61" s="7">
-        <v>55</v>
-      </c>
-      <c r="B61" s="7"/>
-      <c t="s" r="C61" s="8">
-        <v>177</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c t="s" r="H61" s="9">
-        <v>178</v>
-      </c>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c t="s" r="L61" s="10">
-        <v>111</v>
-      </c>
-      <c r="M61" s="10"/>
-      <c t="s" r="N61" s="8">
+      <c r="P61" s="13">
+        <v>2755.1500000000001</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
         <v>179</v>
       </c>
-      <c r="O61" s="8"/>
-      <c t="s" r="P61" s="11">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
         <v>180</v>
       </c>
-      <c t="s" r="Q61" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2796.1500000000001</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
         <v>181</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>182</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>183</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3308,15 +3269,10 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -548,7 +548,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 7:14 PM</t>
+    <t>Thursday, 10 July, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -335,6 +335,27 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>LI.LI VAGINAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>69.90</t>
+  </si>
+  <si>
+    <t>69.9000</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
     <t>MEDIPHA IVY SYRUP</t>
   </si>
   <si>
@@ -461,6 +482,15 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
     <t>VENTAL COMPOSITUM 200 DOSES SPRAY</t>
   </si>
   <si>
@@ -548,7 +578,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 7:17 PM</t>
+    <t>Thursday, 10 July, 2025 7:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2152,15 +2182,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2172,14 +2202,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2189,14 +2219,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2205,7 +2235,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2218,15 +2248,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2238,14 +2268,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2255,14 +2285,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2271,14 +2301,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2288,11 +2318,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2304,14 +2334,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2321,14 +2351,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2337,14 +2367,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2354,14 +2384,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2370,28 +2400,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2403,28 +2433,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2436,7 +2466,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2449,18 +2479,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2469,28 +2499,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2502,14 +2532,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2519,11 +2549,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2535,14 +2565,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2552,14 +2582,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2568,14 +2598,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2585,14 +2615,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2601,14 +2631,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2618,14 +2648,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2634,14 +2664,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2651,11 +2681,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2667,14 +2697,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2684,11 +2714,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2700,14 +2730,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2724,7 +2754,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2740,21 +2770,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2766,31 +2796,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2806,24 +2836,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2832,28 +2862,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2865,7 +2895,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2878,18 +2908,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2898,31 +2928,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2931,66 +2961,165 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2755.1500000000001</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>179</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>181</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>31</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>116</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
         <v>180</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>181</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>182</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>183</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>116</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>58</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>185</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>186</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>116</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>187</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>2866.1100000000001</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>189</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>190</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>191</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3269,10 +3398,25 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -578,7 +578,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 7:21 PM</t>
+    <t>Thursday, 10 July, 2025 7:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -368,6 +377,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>MUPIRAX 2% OINT. 10 GM</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
   </si>
   <si>
@@ -521,6 +539,18 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>برمنجنات بوتاسيوم</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -578,7 +608,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 7:22 PM</t>
+    <t>Thursday, 10 July, 2025 7:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1351,7 +1381,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1361,14 +1391,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1377,14 +1407,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1401,7 +1431,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1417,7 +1447,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1434,7 +1464,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1450,7 +1480,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1467,7 +1497,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1476,14 +1506,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1493,14 +1523,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>46</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1516,7 +1546,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1533,7 +1563,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1566,7 +1596,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1582,7 +1612,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1592,11 +1622,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1608,14 +1638,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1632,7 +1662,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1648,7 +1678,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1658,11 +1688,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1674,14 +1704,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1691,11 +1721,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1707,14 +1737,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1724,11 +1754,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1740,14 +1770,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1780,7 +1810,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1797,7 +1827,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1813,7 +1843,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1823,14 +1853,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1839,14 +1869,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1863,7 +1893,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1879,7 +1909,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1896,7 +1926,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1912,7 +1942,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1945,7 +1975,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1995,7 +2025,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2011,7 +2041,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2028,7 +2058,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2044,7 +2074,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2054,14 +2084,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2070,14 +2100,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2087,11 +2117,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2110,7 +2140,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2143,7 +2173,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2160,7 +2190,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2176,7 +2206,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2193,7 +2223,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2209,7 +2239,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2219,14 +2249,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2235,31 +2265,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2268,28 +2298,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2301,14 +2331,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2318,11 +2348,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2334,14 +2364,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2351,14 +2381,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2367,14 +2397,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2384,11 +2414,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2407,7 +2437,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2424,7 +2454,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2440,7 +2470,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2450,14 +2480,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2473,13 +2503,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2506,17 +2536,17 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2539,13 +2569,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2556,7 +2586,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2572,13 +2602,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2605,7 +2635,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2638,7 +2668,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2652,10 +2682,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2664,14 +2694,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2681,14 +2711,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2697,14 +2727,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2714,14 +2744,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2730,14 +2760,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2747,14 +2777,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2763,14 +2793,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2780,14 +2810,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2803,7 +2833,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2813,7 +2843,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2836,7 +2866,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2846,14 +2876,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2862,31 +2892,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2895,31 +2925,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>175</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2935,24 +2965,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2961,28 +2991,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -2994,31 +3024,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3027,31 +3057,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3060,66 +3090,165 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>2866.1100000000001</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>189</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>191</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>34</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>119</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
         <v>190</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
-        <v>191</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>192</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>193</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>119</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>61</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>195</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>196</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>119</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>197</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3029.1100000000001</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>199</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>200</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>201</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3413,10 +3542,25 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -608,7 +608,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 7:23 PM</t>
+    <t>Thursday, 10 July, 2025 7:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -344,6 +344,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
     <t>LI.LI VAGINAL WASH 250 ML</t>
   </si>
   <si>
@@ -509,6 +518,12 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VENTAL COMPOSITUM 200 DOSES SPRAY</t>
   </si>
   <si>
@@ -566,7 +581,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>6:0</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -608,7 +623,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 7:45 PM</t>
+    <t>Thursday, 10 July, 2025 7:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2239,7 +2254,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2249,14 +2264,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2272,7 +2287,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2282,14 +2297,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2298,31 +2313,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2331,20 +2346,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2381,11 +2396,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2397,14 +2412,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2414,11 +2429,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2430,14 +2445,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2447,14 +2462,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2470,7 +2485,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2487,7 +2502,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2503,7 +2518,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2536,7 +2551,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2546,14 +2561,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2569,24 +2584,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2602,13 +2617,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2619,7 +2634,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2635,13 +2650,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2668,7 +2683,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2701,7 +2716,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2734,7 +2749,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2748,10 +2763,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2760,14 +2775,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2777,11 +2792,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2800,7 +2815,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2814,10 +2829,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2843,11 +2858,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2866,7 +2881,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2883,7 +2898,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2899,7 +2914,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2909,11 +2924,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2925,14 +2940,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2942,14 +2957,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2958,31 +2973,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2991,31 +3006,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3024,31 +3039,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>185</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3057,20 +3072,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3081,7 +3096,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3103,18 +3118,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3136,18 +3151,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3156,28 +3171,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3189,66 +3204,132 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>197</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
         <v>198</v>
       </c>
-      <c t="s" r="Q66" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3029.1100000000001</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>122</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>61</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>199</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c t="s" r="Q67" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>200</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
         <v>201</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>122</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>202</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3061.1100000000001</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>204</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>205</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>206</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3557,10 +3638,20 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CONVIBAN 25MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -416,6 +425,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
@@ -623,7 +641,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 7:46 PM</t>
+    <t>Thursday, 10 July, 2025 7:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1726,7 +1744,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1736,11 +1754,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1752,14 +1770,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1769,11 +1787,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1785,14 +1803,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1802,11 +1820,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1818,14 +1836,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1858,7 +1876,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1875,7 +1893,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1891,7 +1909,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1901,14 +1919,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1917,14 +1935,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1941,7 +1959,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1974,7 +1992,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1990,7 +2008,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2023,7 +2041,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2073,7 +2091,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2089,7 +2107,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2106,7 +2124,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2122,7 +2140,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2132,14 +2150,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2148,14 +2166,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2165,11 +2183,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2188,7 +2206,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2221,7 +2239,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2238,7 +2256,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2254,7 +2272,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2264,11 +2282,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2287,7 +2305,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2297,14 +2315,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2320,7 +2338,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2330,14 +2348,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2346,31 +2364,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2379,20 +2397,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2429,11 +2447,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2445,14 +2463,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2462,11 +2480,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2478,14 +2496,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2495,14 +2513,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2518,7 +2536,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2535,7 +2553,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2551,7 +2569,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2568,7 +2586,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2584,7 +2602,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2594,14 +2612,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2617,13 +2635,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2650,17 +2668,17 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2689,7 +2707,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2700,7 +2718,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2716,13 +2734,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2749,7 +2767,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2782,7 +2800,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2796,10 +2814,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2808,14 +2826,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2825,14 +2843,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2841,14 +2859,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2858,14 +2876,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2874,14 +2892,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2891,14 +2909,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2907,14 +2925,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2924,11 +2942,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2940,14 +2958,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2957,14 +2975,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2973,14 +2991,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2990,7 +3008,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3013,7 +3031,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3023,14 +3041,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3039,31 +3057,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3072,31 +3090,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3105,31 +3123,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>190</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3145,24 +3163,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3171,7 +3189,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3184,18 +3202,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3204,7 +3222,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3217,18 +3235,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3237,28 +3255,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3270,66 +3288,132 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>203</v>
       </c>
-      <c t="s" r="Q68" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3061.1100000000001</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
         <v>204</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>125</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>61</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>205</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c t="s" r="Q69" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>206</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>207</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>125</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>208</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3090.8099999999999</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>210</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>211</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>212</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3648,10 +3732,20 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -227,6 +227,21 @@
     <t>2:3</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>-13.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>DIACEREIN 50MG 30 CAP.</t>
   </si>
   <si>
@@ -641,7 +656,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 7:48 PM</t>
+    <t>Thursday, 10 July, 2025 7:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1860,7 +1875,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1869,14 +1884,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1886,11 +1901,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1902,14 +1917,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1919,14 +1934,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1935,14 +1950,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1952,14 +1967,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1968,14 +1983,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1985,14 +2000,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2001,7 +2016,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2018,14 +2033,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2034,14 +2049,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2051,11 +2066,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2067,14 +2082,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2084,11 +2099,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2100,7 +2115,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2117,14 +2132,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2133,14 +2148,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2150,14 +2165,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2166,14 +2181,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2183,14 +2198,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2216,11 +2231,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2232,14 +2247,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2249,11 +2264,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2265,14 +2280,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2282,14 +2297,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2298,14 +2313,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2315,11 +2330,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2331,14 +2346,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,14 +2363,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2364,14 +2379,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2381,14 +2396,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2397,31 +2412,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2430,28 +2445,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2463,7 +2478,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2480,11 +2495,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2496,14 +2511,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2513,11 +2528,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2529,14 +2544,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2546,14 +2561,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2562,14 +2577,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2579,11 +2594,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2595,14 +2610,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,14 +2627,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2628,14 +2643,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,11 +2660,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,14 +2693,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2694,31 +2709,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2727,31 +2742,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2760,28 +2775,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2793,14 +2808,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2810,11 +2825,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2843,11 +2858,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2859,14 +2874,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2876,14 +2891,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2892,14 +2907,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2909,11 +2924,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2925,14 +2940,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2942,14 +2957,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2975,11 +2990,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2991,7 +3006,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3008,11 +3023,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3041,14 +3056,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,14 +3089,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3107,14 +3122,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3123,31 +3138,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3156,28 +3171,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3189,31 +3204,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>196</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3222,7 +3237,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3235,18 +3250,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>57</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3255,7 +3270,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3268,18 +3283,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3288,7 +3303,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3301,15 +3316,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3321,28 +3336,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3354,66 +3369,99 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3090.8099999999999</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>210</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>211</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
         <v>212</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>130</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>213</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3077.8099999999999</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>215</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>216</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>217</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3742,10 +3790,15 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -272,6 +272,18 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -413,12 +425,18 @@
     <t>MUPIRAX 2% OINT. 10 GM</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
     <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
   </si>
   <si>
@@ -572,7 +590,7 @@
     <t>1:4</t>
   </si>
   <si>
-    <t>14.4000</t>
+    <t>28.8000</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -587,6 +605,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
     <t>برمنجنات بوتاسيوم</t>
   </si>
   <si>
@@ -611,10 +638,16 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>ريكسونا حريمي بليه</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>7:0</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -647,16 +680,13 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 7:49 PM</t>
+    <t>Thursday, 10 July, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2007,7 +2037,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2023,7 +2053,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2033,14 +2063,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2049,7 +2079,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2066,14 +2096,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2082,14 +2112,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2099,11 +2129,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2115,14 +2145,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2132,11 +2162,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2148,7 +2178,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2165,14 +2195,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2181,14 +2211,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2198,14 +2228,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2214,14 +2244,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2231,14 +2261,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2247,14 +2277,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2264,11 +2294,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2280,14 +2310,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2297,11 +2327,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2313,14 +2343,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2330,14 +2360,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2346,14 +2376,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2367,7 +2397,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2379,14 +2409,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2396,14 +2426,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2412,14 +2442,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2436,7 +2466,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2452,13 +2482,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2469,7 +2499,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2485,21 +2515,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2511,7 +2541,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2528,11 +2558,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2544,14 +2574,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2561,14 +2591,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2577,14 +2607,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2594,14 +2624,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2610,14 +2640,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2627,14 +2657,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2650,7 +2680,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2667,7 +2697,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2683,7 +2713,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2700,7 +2730,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2716,7 +2746,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2726,14 +2756,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2749,13 +2779,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2782,17 +2812,17 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2821,7 +2851,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2832,7 +2862,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2848,13 +2878,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2881,7 +2911,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2914,7 +2944,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2928,10 +2958,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2940,14 +2970,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2957,14 +2987,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2973,14 +3003,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2990,14 +3020,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3006,14 +3036,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3023,14 +3053,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3039,14 +3069,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3056,11 +3086,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3072,14 +3102,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3089,14 +3119,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3105,14 +3135,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3122,7 +3152,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3145,7 +3175,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3155,14 +3185,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3171,31 +3201,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3204,31 +3234,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3237,31 +3267,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>201</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3270,20 +3300,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3294,7 +3324,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3310,21 +3340,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3336,28 +3366,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3369,31 +3399,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3402,66 +3432,198 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3077.8099999999999</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>215</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>216</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>34</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>134</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
         <v>217</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>218</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>34</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>134</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>217</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>219</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>220</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>134</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>61</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>222</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>212</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>134</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>223</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3246.6100000000001</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>225</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>226</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>227</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3795,10 +3957,30 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>ALPHAVIM 300 - 20 CAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -113,9 +125,6 @@
     <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>124.00</t>
   </si>
   <si>
@@ -353,6 +362,15 @@
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>349.00</t>
+  </si>
+  <si>
+    <t>349.0000</t>
+  </si>
+  <si>
     <t>HYACARENOL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -539,6 +557,15 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>73.2600</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -581,9 +608,6 @@
     <t>80.00</t>
   </si>
   <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -686,7 +710,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 7:57 PM</t>
+    <t>Thursday, 10 July, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1443,7 +1467,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1452,14 +1476,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1476,7 +1500,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1485,14 +1509,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1509,7 +1533,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1525,7 +1549,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1542,7 +1566,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1558,7 +1582,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1575,7 +1599,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1591,7 +1615,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1608,7 +1632,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1617,14 +1641,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1634,14 +1658,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>49</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1657,7 +1681,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1674,7 +1698,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1707,7 +1731,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1723,7 +1747,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1733,11 +1757,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1749,14 +1773,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1773,7 +1797,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1789,7 +1813,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1822,7 +1846,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1832,11 +1856,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1848,14 +1872,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1865,11 +1889,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1881,14 +1905,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1898,14 +1922,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1914,14 +1938,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1931,14 +1955,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1947,14 +1971,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1987,7 +2011,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2004,7 +2028,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2020,7 +2044,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2030,14 +2054,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2046,14 +2070,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2063,14 +2087,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2079,14 +2103,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2103,7 +2127,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2119,7 +2143,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2136,7 +2160,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2152,7 +2176,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2185,7 +2209,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2235,7 +2259,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2251,7 +2275,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2268,7 +2292,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2284,7 +2308,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2294,14 +2318,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2310,14 +2334,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2327,11 +2351,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2350,7 +2374,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2383,7 +2407,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2400,7 +2424,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2416,7 +2440,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2426,14 +2450,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2449,7 +2473,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2466,7 +2490,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2496,7 +2520,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2508,28 +2532,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2541,14 +2565,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2558,14 +2582,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2581,24 +2605,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2607,7 +2631,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2624,11 +2648,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2640,14 +2664,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2657,14 +2681,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2673,14 +2697,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2690,14 +2714,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2706,14 +2730,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2723,14 +2747,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2746,7 +2770,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2763,7 +2787,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2779,7 +2803,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2796,7 +2820,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2812,7 +2836,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2822,14 +2846,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2845,13 +2869,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2878,17 +2902,17 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2911,13 +2935,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2928,7 +2952,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2944,13 +2968,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2977,7 +3001,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3010,7 +3034,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3024,10 +3048,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3036,14 +3060,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3053,14 +3077,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3069,14 +3093,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3086,11 +3110,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3102,14 +3126,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3119,14 +3143,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3135,14 +3159,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3152,14 +3176,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3168,14 +3192,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3185,14 +3209,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3201,14 +3225,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3218,14 +3242,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3234,14 +3258,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3251,14 +3275,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3267,14 +3291,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3284,11 +3308,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3300,31 +3324,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3333,31 +3357,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3366,28 +3390,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3399,31 +3423,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>212</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3439,24 +3463,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3465,28 +3489,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3498,31 +3522,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3531,31 +3555,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>61</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3564,66 +3588,165 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3246.6100000000001</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>226</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>26</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>140</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
         <v>225</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>226</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>227</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>228</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>140</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>64</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>230</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>220</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>140</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>231</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>3748.8699999999999</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>233</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>234</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>235</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3977,10 +4100,25 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -149,6 +161,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -218,6 +242,18 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -254,9 +290,6 @@
     <t>DIACEREIN 50MG 30 CAP.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>156.00</t>
   </si>
   <si>
@@ -287,9 +320,6 @@
     <t>10:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -431,9 +461,6 @@
     <t>MEDIPHA IVY SYRUP</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -485,6 +512,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>PRONTOGEST 400MG 30 VAGINAL PESSARIES</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t>59.5200</t>
+  </si>
+  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
@@ -632,36 +671,48 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>5:0</t>
+    <t>4:0</t>
   </si>
   <si>
     <t>96.00</t>
   </si>
   <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>برمنجنات بوتاسيوم</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
     <t>10.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
     <t>13:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>ريكسونا حريمي بليه</t>
   </si>
   <si>
@@ -671,46 +722,46 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>لزقه النمر بسعر القطعه</t>
+  </si>
+  <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>لزقه النمر بسعر القطعه</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>معجون سنسوداين صغير</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 8:20 PM</t>
+    <t>Thursday, 10 July, 2025 8:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1516,21 +1567,21 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1542,14 +1593,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1559,14 +1610,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1575,14 +1626,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1592,14 +1643,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1608,14 +1659,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1625,14 +1676,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1641,14 +1692,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1658,14 +1709,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1681,7 +1732,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1691,14 +1742,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1707,14 +1758,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1724,14 +1775,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1740,14 +1791,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1757,11 +1808,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1773,14 +1824,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1790,14 +1841,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1806,14 +1857,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1823,14 +1874,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1839,14 +1890,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1856,14 +1907,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1872,14 +1923,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1889,11 +1940,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1905,14 +1956,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1922,11 +1973,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1938,14 +1989,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1955,14 +2006,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1971,14 +2022,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1988,11 +2039,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2004,14 +2055,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2021,11 +2072,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2044,7 +2095,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2054,14 +2105,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2070,14 +2121,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2087,11 +2138,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2103,14 +2154,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2127,7 +2178,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2143,7 +2194,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2176,7 +2227,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2186,7 +2237,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2209,7 +2260,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2219,14 +2270,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2235,14 +2286,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2252,14 +2303,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2268,14 +2319,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2285,14 +2336,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2301,14 +2352,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2318,11 +2369,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2334,7 +2385,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2351,14 +2402,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2367,14 +2418,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2384,11 +2435,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2400,14 +2451,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2417,14 +2468,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2433,7 +2484,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2450,11 +2501,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2466,14 +2517,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2483,14 +2534,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2499,14 +2550,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2520,10 +2571,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2532,14 +2583,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2549,11 +2600,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2565,14 +2616,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2605,13 +2656,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2619,10 +2670,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2631,14 +2682,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2648,7 +2699,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2671,7 +2722,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2681,11 +2732,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2697,28 +2748,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2730,14 +2781,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2747,11 +2798,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2763,14 +2814,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2780,11 +2831,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2796,14 +2847,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2813,14 +2864,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2829,14 +2880,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2846,11 +2897,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2869,7 +2920,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2886,7 +2937,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2902,7 +2953,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2912,7 +2963,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2935,24 +2986,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2961,31 +3012,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2994,14 +3045,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3011,14 +3062,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3027,14 +3078,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3044,11 +3095,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3060,31 +3111,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3093,28 +3144,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3126,14 +3177,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3143,14 +3194,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3159,14 +3210,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3176,14 +3227,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3192,14 +3243,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3209,11 +3260,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3225,14 +3276,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3242,11 +3293,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3258,14 +3309,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3275,14 +3326,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3291,14 +3342,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3308,11 +3359,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3324,14 +3375,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3341,14 +3392,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3357,14 +3408,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>68</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3374,14 +3425,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3390,14 +3441,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3407,14 +3458,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3423,20 +3474,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3444,7 +3495,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3456,31 +3507,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3489,31 +3540,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3529,24 +3580,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>220</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3555,31 +3606,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3588,28 +3639,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3621,28 +3672,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3654,28 +3705,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3687,66 +3738,297 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>3748.8699999999999</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>233</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>234</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
-        <v>235</v>
-      </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>236</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>26</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>36</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>217</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>238</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>26</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>36</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>239</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>240</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>26</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>36</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>241</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>242</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>26</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>36</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>241</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>243</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>68</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>36</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>72</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>244</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>245</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>36</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>72</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>246</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>247</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>36</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>248</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4095.895</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>250</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>251</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>252</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4115,10 +4397,45 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
     <t>4:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>102.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -254,6 +266,12 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -437,6 +455,12 @@
     <t>60.00</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>LI.LI VAGINAL WASH 250 ML</t>
   </si>
   <si>
@@ -548,9 +572,6 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>SERETIDE INHAELER 125/25 MC</t>
   </si>
   <si>
@@ -626,6 +647,15 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>234.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -722,7 +752,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -734,9 +767,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>لزقه النمر بسعر القطعه</t>
   </si>
   <si>
@@ -761,7 +791,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 8:21 PM</t>
+    <t>Thursday, 10 July, 2025 8:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1435,7 +1465,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1445,14 +1475,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1461,14 +1491,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1485,7 +1515,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1551,7 +1581,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1560,31 +1590,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1600,24 +1630,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1626,14 +1656,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1643,14 +1673,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1659,14 +1689,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1676,11 +1706,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1692,14 +1722,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1709,14 +1739,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1725,14 +1755,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1749,7 +1779,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1765,7 +1795,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1775,14 +1805,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1798,7 +1828,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1815,7 +1845,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1824,14 +1854,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1841,11 +1871,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1857,14 +1887,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1874,14 +1904,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1890,14 +1920,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1914,7 +1944,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1930,7 +1960,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1940,11 +1970,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1956,14 +1986,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1973,14 +2003,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1989,14 +2019,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2013,7 +2043,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2046,7 +2076,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2072,14 +2102,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2112,7 +2142,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2121,14 +2151,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2138,14 +2168,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2154,14 +2184,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2171,14 +2201,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>97</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2194,7 +2224,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2211,7 +2241,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2227,7 +2257,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2237,14 +2267,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2260,7 +2290,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2270,14 +2300,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2286,14 +2316,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2303,14 +2333,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2319,14 +2349,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2343,7 +2373,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2359,7 +2389,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2392,7 +2422,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2409,7 +2439,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2425,7 +2455,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2442,7 +2472,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2458,7 +2488,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2475,7 +2505,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2491,7 +2521,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2501,14 +2531,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2517,14 +2547,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2534,14 +2564,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2550,14 +2580,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2567,14 +2597,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2590,7 +2620,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2607,7 +2637,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2623,7 +2653,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2656,7 +2686,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2666,11 +2696,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2689,7 +2719,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2706,7 +2736,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2736,10 +2766,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2748,31 +2778,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2781,14 +2811,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2798,14 +2828,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2814,14 +2844,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2838,7 +2868,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2854,24 +2884,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2880,14 +2910,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2897,14 +2927,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2913,14 +2943,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2930,14 +2960,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2946,14 +2976,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2963,7 +2993,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2986,7 +3016,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2996,11 +3026,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3012,14 +3042,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3029,14 +3059,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3045,14 +3075,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3062,14 +3092,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3078,14 +3108,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3095,14 +3125,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3111,7 +3141,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3124,18 +3154,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3144,28 +3174,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3177,14 +3207,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3194,14 +3224,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3210,28 +3240,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3243,31 +3273,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3276,14 +3306,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3293,14 +3323,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3309,14 +3339,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3326,14 +3356,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3342,14 +3372,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3359,14 +3389,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3375,14 +3405,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3392,14 +3422,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3415,7 +3445,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3429,7 +3459,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3441,14 +3471,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3458,7 +3488,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3481,7 +3511,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3495,10 +3525,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3514,7 +3544,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3524,14 +3554,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>214</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>78</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3547,7 +3577,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3557,14 +3587,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3573,14 +3603,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3590,14 +3620,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>19</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3606,31 +3636,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3639,31 +3669,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3672,31 +3702,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3705,31 +3735,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3738,31 +3768,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3778,24 +3808,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>237</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3804,31 +3834,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>220</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3837,31 +3867,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>113</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3870,31 +3900,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3903,31 +3933,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>72</v>
+        <v>227</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3936,31 +3966,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>72</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3969,66 +3999,198 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4095.895</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>250</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
-        <v>251</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>252</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>30</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>40</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>14</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>253</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>72</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>40</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>76</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>254</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>255</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>40</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>76</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>256</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>257</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>40</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>258</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>4413.7749999999996</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>260</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>261</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>262</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4432,10 +4594,30 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -254,12 +254,21 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -269,7 +278,10 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
@@ -449,9 +461,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>3:3</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -752,10 +761,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>21:0</t>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -791,7 +800,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 8:23 PM</t>
+    <t>Thursday, 10 July, 2025 8:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2092,7 +2101,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2102,11 +2111,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2118,14 +2127,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2135,14 +2144,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2168,11 +2177,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2184,14 +2193,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2201,14 +2210,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2217,14 +2226,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2241,7 +2250,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2250,14 +2259,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2267,11 +2276,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2283,14 +2292,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2300,14 +2309,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2316,14 +2325,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2333,14 +2342,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2349,14 +2358,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2366,14 +2375,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2389,7 +2398,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2399,14 +2408,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2415,7 +2424,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2432,14 +2441,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2448,14 +2457,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2465,11 +2474,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2498,11 +2507,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2514,7 +2523,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2531,14 +2540,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2547,14 +2556,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2564,14 +2573,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2580,14 +2589,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2597,14 +2606,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2613,14 +2622,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2630,11 +2639,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2646,7 +2655,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2663,11 +2672,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2679,14 +2688,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2696,11 +2705,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2712,14 +2721,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2729,14 +2738,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2745,14 +2754,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2766,7 +2775,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2778,14 +2787,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2795,14 +2804,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2811,14 +2820,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2828,7 +2837,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2851,7 +2860,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2861,14 +2870,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2877,20 +2886,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2901,7 +2910,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2917,21 +2926,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2960,14 +2969,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2983,7 +2992,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2993,14 +3002,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3009,14 +3018,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3026,11 +3035,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3042,14 +3051,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3059,14 +3068,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3082,7 +3091,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3115,7 +3124,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3125,11 +3134,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3141,14 +3150,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3165,7 +3174,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3181,7 +3190,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3214,7 +3223,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3240,31 +3249,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3280,7 +3289,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3297,7 +3306,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3313,13 +3322,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3346,7 +3355,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3379,7 +3388,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3412,7 +3421,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3445,7 +3454,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3459,10 +3468,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3471,14 +3480,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3488,11 +3497,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3511,7 +3520,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3525,10 +3534,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3554,14 +3563,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>214</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3577,7 +3586,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3587,14 +3596,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>217</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3620,11 +3629,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3653,14 +3662,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>19</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3669,14 +3678,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3686,14 +3695,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3719,14 +3728,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>122</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3735,14 +3744,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3752,11 +3761,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>26</v>
@@ -3768,20 +3777,20 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3792,7 +3801,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3808,7 +3817,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3841,7 +3850,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3874,7 +3883,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>243</v>
+        <v>72</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3884,11 +3893,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3900,14 +3909,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3917,11 +3926,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3933,14 +3942,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3950,14 +3959,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>248</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3983,14 +3992,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3999,7 +4008,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4016,14 +4025,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>72</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4032,7 +4041,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4053,10 +4062,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4065,14 +4074,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4082,11 +4091,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4098,14 +4107,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>72</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4131,14 +4140,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4148,49 +4157,82 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>259</v>
       </c>
-      <c t="s" r="Q89" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>4413.7749999999996</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
         <v>260</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>40</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
         <v>261</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>262</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4456.8800000000001</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>263</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>264</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>265</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4614,10 +4656,15 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -800,7 +800,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 8:24 PM</t>
+    <t>Thursday, 10 July, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -257,15 +257,15 @@
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>54.4500</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -698,13 +698,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8562:0</t>
+    <t>8561:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -734,9 +734,6 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -761,10 +758,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>23:0</t>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -774,6 +768,9 @@
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>60.0000</t>
   </si>
   <si>
     <t>لزقه النمر بسعر القطعه</t>
@@ -2068,7 +2065,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2078,14 +2075,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>84</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2101,7 +2098,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2151,7 +2148,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2266,7 +2263,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2415,7 +2412,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -3124,7 +3121,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3322,7 +3319,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3454,7 +3451,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3520,7 +3517,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3735,7 +3732,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3768,7 +3765,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3850,7 +3847,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3864,10 +3861,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3876,7 +3873,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3893,11 +3890,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3909,14 +3906,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3926,11 +3923,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3942,7 +3939,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3963,7 +3960,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3975,7 +3972,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3996,10 +3993,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4008,7 +4005,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4025,7 +4022,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4041,7 +4038,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4062,10 +4059,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>123</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>72</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4074,7 +4071,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4107,7 +4104,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4140,14 +4137,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4173,14 +4170,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4190,11 +4187,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4202,13 +4199,13 @@
     </row>
     <row r="91" ht="25.5" customHeight="1">
       <c r="P91" s="13">
-        <v>4456.8800000000001</v>
+        <v>4528.1049999999996</v>
       </c>
       <c r="Q91" s="13"/>
     </row>
     <row r="92" ht="16.5" customHeight="1">
       <c t="s" r="A92" s="14">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -4216,13 +4213,13 @@
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
       <c t="s" r="G92" s="15">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
       <c r="J92" s="16"/>
       <c t="s" r="K92" s="17">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L92" s="17"/>
       <c r="M92" s="17"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -278,189 +278,180 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>DIACEREIN 50MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>8:9</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FUSIDERM 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>349.00</t>
+  </si>
+  <si>
+    <t>349.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
     <t>3:3</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>-13.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>DIACEREIN 50MG 30 CAP.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>8:9</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>23.0400</t>
-  </si>
-  <si>
-    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>E-YEAST 20 CAPS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FUSIDERM 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>349.00</t>
-  </si>
-  <si>
-    <t>349.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -740,15 +731,15 @@
     <t>20.00</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>ريكسونا حريمي بليه</t>
   </si>
   <si>
@@ -758,7 +749,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>24:0</t>
+    <t>26:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -770,7 +761,10 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>60.0000</t>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
   </si>
   <si>
     <t>لزقه النمر بسعر القطعه</t>
@@ -782,7 +776,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>معجون سنسوداين صغير</t>
@@ -797,7 +791,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 8:28 PM</t>
+    <t>Thursday, 10 July, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2148,7 +2142,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2164,7 +2158,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2174,11 +2168,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2190,14 +2184,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2223,14 +2217,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2240,14 +2234,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>101</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2256,7 +2250,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2273,11 +2267,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2289,7 +2283,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2306,11 +2300,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2322,7 +2316,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2339,11 +2333,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2355,14 +2349,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2376,7 +2370,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2388,14 +2382,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2405,11 +2399,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>84</v>
@@ -2421,7 +2415,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2438,11 +2432,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2454,7 +2448,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2471,11 +2465,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2487,7 +2481,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2504,11 +2498,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2520,7 +2514,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2537,11 +2531,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2553,7 +2547,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2570,11 +2564,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2586,14 +2580,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2603,14 +2597,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2619,7 +2613,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2652,7 +2646,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2669,11 +2663,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2685,7 +2679,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2702,11 +2696,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2718,7 +2712,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2735,11 +2729,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2751,7 +2745,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2768,11 +2762,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2784,14 +2778,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2801,7 +2795,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2817,7 +2811,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2838,7 +2832,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2850,7 +2844,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2867,11 +2861,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2883,14 +2877,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2900,11 +2894,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2916,7 +2910,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2933,11 +2927,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2949,7 +2943,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2970,7 +2964,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2982,7 +2976,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2999,11 +2993,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3015,7 +3009,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3032,11 +3026,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3048,7 +3042,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3065,11 +3059,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3081,7 +3075,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3098,11 +3092,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3114,7 +3108,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3131,11 +3125,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3147,14 +3141,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3164,11 +3158,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3180,7 +3174,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3197,11 +3191,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3213,7 +3207,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3230,11 +3224,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3246,14 +3240,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3263,7 +3257,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3279,7 +3273,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3296,11 +3290,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3312,7 +3306,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3329,11 +3323,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3345,7 +3339,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3362,11 +3356,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3378,7 +3372,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3395,11 +3389,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3411,7 +3405,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3428,11 +3422,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3444,7 +3438,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3461,11 +3455,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3477,7 +3471,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3494,11 +3488,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3510,7 +3504,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3527,11 +3521,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3543,7 +3537,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3560,11 +3554,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3576,7 +3570,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3597,10 +3591,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3609,7 +3603,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3626,11 +3620,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3642,7 +3636,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3663,7 +3657,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3675,7 +3669,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3692,7 +3686,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3708,14 +3702,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3725,11 +3719,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>84</v>
@@ -3741,14 +3735,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3758,11 +3752,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>72</v>
@@ -3774,14 +3768,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3791,11 +3785,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>26</v>
@@ -3807,14 +3801,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3824,11 +3818,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3840,7 +3834,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3857,11 +3851,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>26</v>
@@ -3873,14 +3867,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,14 +3884,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3906,14 +3900,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3923,11 +3917,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3939,7 +3933,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3956,11 +3950,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3972,7 +3966,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3989,14 +3983,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4005,7 +3999,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4022,14 +4016,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4038,7 +4032,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4059,10 +4053,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4071,7 +4065,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4104,7 +4098,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4137,14 +4131,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4158,10 +4152,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4170,14 +4164,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4187,11 +4181,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4199,13 +4193,13 @@
     </row>
     <row r="91" ht="25.5" customHeight="1">
       <c r="P91" s="13">
-        <v>4528.1049999999996</v>
+        <v>4633.8050000000003</v>
       </c>
       <c r="Q91" s="13"/>
     </row>
     <row r="92" ht="16.5" customHeight="1">
       <c t="s" r="A92" s="14">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -4213,13 +4207,13 @@
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
       <c t="s" r="G92" s="15">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
       <c r="J92" s="16"/>
       <c t="s" r="K92" s="17">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L92" s="17"/>
       <c r="M92" s="17"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -245,6 +245,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CONVIBAN 25MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -524,114 +536,126 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 400MG 30 VAGINAL PESSARIES</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t>59.5200</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAPERO  30TAB</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>SERETIDE INHAELER 125/25 MC</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>SORAL 30 MG 30CAPS</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>42.5700</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN-M 25*10 TABLETS</t>
+  </si>
+  <si>
+    <t>362.50</t>
+  </si>
+  <si>
+    <t>14.5000</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>73.2600</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
     <t>23.0000</t>
   </si>
   <si>
-    <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>PRONTOGEST 400MG 30 VAGINAL PESSARIES</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>372.00</t>
-  </si>
-  <si>
-    <t>59.5200</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>SANSOVIT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>SELGON 20MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>SERETIDE INHAELER 125/25 MC</t>
-  </si>
-  <si>
-    <t>228.00</t>
-  </si>
-  <si>
-    <t>228.0000</t>
-  </si>
-  <si>
-    <t>SORAL 30 MG 30CAPS</t>
-  </si>
-  <si>
-    <t>129.00</t>
-  </si>
-  <si>
-    <t>42.5700</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN-M 25*10 TABLETS</t>
-  </si>
-  <si>
-    <t>362.50</t>
-  </si>
-  <si>
-    <t>14.5000</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>TELFAST 120MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>222.00</t>
-  </si>
-  <si>
-    <t>73.2600</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
     <t>TORSERETIC 10 MG 30 TABS.</t>
   </si>
   <si>
@@ -734,9 +758,6 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -791,7 +812,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 8:29 PM</t>
+    <t>Thursday, 10 July, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2026,7 +2047,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2036,14 +2057,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2052,14 +2073,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2069,14 +2090,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2092,7 +2113,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2109,7 +2130,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2118,14 +2139,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2135,14 +2156,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2151,14 +2172,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2168,14 +2189,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2184,14 +2205,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2201,11 +2222,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2217,14 +2238,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2234,14 +2255,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2250,14 +2271,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2267,14 +2288,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2283,14 +2304,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2300,11 +2321,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2316,14 +2337,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2333,14 +2354,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2349,14 +2370,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2366,14 +2387,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2382,14 +2403,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2399,14 +2420,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2422,7 +2443,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2432,14 +2453,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2448,7 +2469,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2465,14 +2486,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2481,14 +2502,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2498,11 +2519,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2514,14 +2535,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2531,11 +2552,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2547,7 +2568,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2564,14 +2585,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2580,7 +2601,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2597,14 +2618,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2613,7 +2634,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2630,14 +2651,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2646,14 +2667,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2663,11 +2684,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2679,7 +2700,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2696,11 +2717,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2712,14 +2733,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2729,11 +2750,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2745,14 +2766,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2762,14 +2783,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2778,14 +2799,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2799,7 +2820,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2811,14 +2832,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2828,14 +2849,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2844,14 +2865,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2861,11 +2882,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2877,14 +2898,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2901,7 +2922,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2917,24 +2938,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2943,28 +2964,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2976,14 +2997,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2993,14 +3014,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3009,14 +3030,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3026,14 +3047,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3042,14 +3063,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3059,11 +3080,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3075,14 +3096,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3092,14 +3113,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3108,14 +3129,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3125,14 +3146,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3141,14 +3162,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3181,7 +3202,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3191,14 +3212,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3207,14 +3228,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3224,11 +3245,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3240,14 +3261,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3257,14 +3278,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3273,14 +3294,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3290,11 +3311,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3306,28 +3327,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3339,7 +3360,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3352,18 +3373,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3372,28 +3393,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3405,14 +3426,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3422,11 +3443,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3438,14 +3459,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3455,11 +3476,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3471,14 +3492,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3488,14 +3509,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3504,14 +3525,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3521,14 +3542,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3537,14 +3558,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3554,14 +3575,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3570,14 +3591,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3587,14 +3608,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>214</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3603,14 +3624,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3620,11 +3641,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3636,14 +3657,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3653,14 +3674,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3669,14 +3690,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3686,14 +3707,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3702,14 +3723,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>72</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3719,14 +3740,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3735,14 +3756,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3752,14 +3773,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3768,14 +3789,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3785,14 +3806,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3808,24 +3829,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3834,28 +3855,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>30</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>26</v>
@@ -3867,14 +3888,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3884,14 +3905,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>70</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3900,14 +3921,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3917,14 +3938,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3933,14 +3954,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3950,14 +3971,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3966,14 +3987,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3983,14 +4004,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>141</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>246</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3999,14 +4020,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4016,14 +4037,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>230</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4032,7 +4053,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4049,14 +4070,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4065,7 +4086,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4082,14 +4103,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4098,14 +4119,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4115,14 +4136,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>57</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4131,14 +4152,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4148,14 +4169,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4164,14 +4185,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>72</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4181,49 +4202,115 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4633.8050000000003</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>260</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>261</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
         <v>262</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>40</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>76</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>263</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>264</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>40</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>265</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4859.8050000000003</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>267</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>268</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>269</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4652,10 +4739,20 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -710,6 +710,12 @@
     <t>28.8000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -767,10 +773,25 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>26:0</t>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>27:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -779,15 +800,21 @@
     <t>3.00</t>
   </si>
   <si>
+    <t xml:space="preserve">شامبو SUNSILK  ك 350 مل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>75.0000</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>لزقه النمر بسعر القطعه</t>
   </si>
   <si>
@@ -812,7 +839,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 8:48 PM</t>
+    <t>Thursday, 10 July, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3839,14 +3866,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3855,14 +3882,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3872,14 +3899,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3888,31 +3915,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3921,14 +3948,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3938,14 +3965,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3961,7 +3988,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3975,7 +4002,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>26</v>
@@ -3994,7 +4021,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4004,14 +4031,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4027,7 +4054,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4037,7 +4064,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4060,7 +4087,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4070,14 +4097,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>253</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4093,7 +4120,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4103,14 +4130,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>238</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4119,7 +4146,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4136,14 +4163,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4152,7 +4179,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4169,14 +4196,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4185,14 +4212,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4202,11 +4229,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4218,14 +4245,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4235,14 +4262,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4251,14 +4278,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>30</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4268,49 +4295,181 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4859.8050000000003</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>267</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>268</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>30</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>40</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>14</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>269</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>72</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>40</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>76</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>270</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>271</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>40</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>76</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>272</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>273</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>40</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>274</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5073.6350000000002</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>276</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>277</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>278</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4749,10 +4908,30 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-10_00-00.xlsx
+++ b/DaySale_2025-07-10_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>71.00</t>
   </si>
   <si>
-    <t>35.5000</t>
+    <t>71.0000</t>
   </si>
   <si>
     <t>FUSIDERM 2% CREAM 15 GM</t>
@@ -602,6 +602,15 @@
     <t>228.0000</t>
   </si>
   <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>SORAL 30 MG 30CAPS</t>
   </si>
   <si>
@@ -839,7 +848,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 10 July, 2025 9:07 PM</t>
+    <t>Thursday, 10 July, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2602,7 +2611,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2619,7 +2628,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -3427,13 +3436,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3444,7 +3453,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3460,13 +3469,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3493,7 +3502,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3526,7 +3535,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3559,7 +3568,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3592,7 +3601,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3609,7 +3618,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3625,7 +3634,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3658,7 +3667,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3672,10 +3681,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3684,14 +3693,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3701,14 +3710,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>222</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3724,7 +3733,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3734,14 +3743,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>225</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3767,11 +3776,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3783,14 +3792,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3800,14 +3809,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3816,14 +3825,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3833,14 +3842,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3866,14 +3875,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3899,14 +3908,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3915,14 +3924,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3932,14 +3941,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3948,20 +3957,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3972,7 +3981,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3988,7 +3997,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4002,10 +4011,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4014,14 +4023,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4031,11 +4040,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>26</v>
@@ -4047,14 +4056,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4064,14 +4073,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4080,14 +4089,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4097,11 +4106,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4113,14 +4122,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4130,11 +4139,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4146,14 +4155,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4163,14 +4172,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>260</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4196,14 +4205,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4212,14 +4221,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4229,14 +4238,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4245,14 +4254,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4262,11 +4271,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4278,14 +4287,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>30</v>
+        <v>268</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4299,10 +4308,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>265</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4311,7 +4320,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4332,10 +4341,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4344,14 +4353,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4361,11 +4370,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4377,14 +4386,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>72</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4398,10 +4407,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4410,14 +4419,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4427,49 +4436,82 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>275</v>
       </c>
-      <c t="s" r="Q96" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5073.6350000000002</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
         <v>276</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>40</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
         <v>277</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>278</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>5231.1350000000002</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>279</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>280</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>281</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4928,10 +4970,15 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
